--- a/data/georgia_census/qvemo-qartli/bolnisi/age_dependency.xlsx
+++ b/data/georgia_census/qvemo-qartli/bolnisi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92FD51A5-3322-4C49-94CF-6EC6A181D941}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FA1D2F9-DB14-4CB7-8C59-D49B0B79A702}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8931E501-890C-4AC0-A50B-39907B9F60B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE9E07B5-1F25-4BE5-8D08-44C1CC3E9088}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B4CB7CB-B759-4F98-9F4C-71990FDDC738}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBD1D446-8068-4BBD-B711-EA8F3E777BBF}"/>
 </file>